--- a/Priset/MonsterStat.xlsx
+++ b/Priset/MonsterStat.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -494,343 +494,88 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>

--- a/Priset/MonsterStat.xlsx
+++ b/Priset/MonsterStat.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -452,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>

--- a/Priset/MonsterStat.xlsx
+++ b/Priset/MonsterStat.xlsx
@@ -97,6 +97,125 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1074420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="24.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="822960" y="419232"/>
+          <a:ext cx="251460" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>805320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>188232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1056780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>218712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="25.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="805320" y="630192"/>
+          <a:ext cx="251460" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>825780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>193452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1077240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="26.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825780" y="856392"/>
+          <a:ext cx="251460" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,7 +506,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -429,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -452,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -461,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -475,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -642,6 +761,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
